--- a/pythonProject/Results_2/time_results_2.xlsx
+++ b/pythonProject/Results_2/time_results_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458A805A-0396-41F1-A909-EF61B057D5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761F89A5-BEEC-42CC-ADA5-A348FF3B7ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2712" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="H224" sqref="H224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,6 +425,3030 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>963.62290000001849</v>
+      </c>
+      <c r="F2">
+        <v>354.51640000002271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>963.62290000001849</v>
+      </c>
+      <c r="D3">
+        <v>399.99050000000119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>963.62290000001849</v>
+      </c>
+      <c r="E4">
+        <v>467.04649999998082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>963.62290000001849</v>
+      </c>
+      <c r="E5">
+        <v>513.99220000001833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>963.62290000001849</v>
+      </c>
+      <c r="D6">
+        <v>559.17429999999513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>963.62290000001849</v>
+      </c>
+      <c r="E7">
+        <v>613.79829999998492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>963.62290000001849</v>
+      </c>
+      <c r="F8">
+        <v>924.19920000003231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>963.62290000001849</v>
+      </c>
+      <c r="E9">
+        <v>991.1822999999913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>963.62290000001849</v>
+      </c>
+      <c r="E10">
+        <v>1058.715500000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>923.61449999998513</v>
+      </c>
+      <c r="E11">
+        <v>40.673800000035953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>923.61449999998513</v>
+      </c>
+      <c r="E12">
+        <v>103.1443000000536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>923.61449999998513</v>
+      </c>
+      <c r="D13">
+        <v>146.80889999999641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>923.61449999998513</v>
+      </c>
+      <c r="F14">
+        <v>451.13560000004333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>923.61449999998513</v>
+      </c>
+      <c r="E15">
+        <v>496.63570000006979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>923.61449999998513</v>
+      </c>
+      <c r="D16">
+        <v>539.55020000000786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>923.61449999998513</v>
+      </c>
+      <c r="F17">
+        <v>848.11160000003838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>923.61449999998513</v>
+      </c>
+      <c r="F18">
+        <v>1166.77750000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>923.61449999998513</v>
+      </c>
+      <c r="D19">
+        <v>1212.890800000082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>923.61449999998513</v>
+      </c>
+      <c r="D20">
+        <v>1257.015799999976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1000.457899999901</v>
+      </c>
+      <c r="E21">
+        <v>43.933599999945727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1000.457899999901</v>
+      </c>
+      <c r="E22">
+        <v>107.14809999990391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1000.457899999901</v>
+      </c>
+      <c r="D23">
+        <v>151.3512999999875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1000.457899999901</v>
+      </c>
+      <c r="E24">
+        <v>199.2094999998244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>1000.457899999901</v>
+      </c>
+      <c r="E25">
+        <v>246.38639999989209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>1000.457899999901</v>
+      </c>
+      <c r="F26">
+        <v>570.37569999988591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1199.622899999895</v>
+      </c>
+      <c r="F27">
+        <v>307.35059999983599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1199.622899999895</v>
+      </c>
+      <c r="D28">
+        <v>351.1258999999427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1199.622899999895</v>
+      </c>
+      <c r="E29">
+        <v>422.36499999989968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>1199.622899999895</v>
+      </c>
+      <c r="D30">
+        <v>467.46369999982562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>1199.622899999895</v>
+      </c>
+      <c r="F31">
+        <v>787.79039999994893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>1199.622899999895</v>
+      </c>
+      <c r="D32">
+        <v>832.66889999981686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>1199.622899999895</v>
+      </c>
+      <c r="F33">
+        <v>1146.1762999999789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>1199.622899999895</v>
+      </c>
+      <c r="D34">
+        <v>1191.376499999933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1199.622899999895</v>
+      </c>
+      <c r="F35">
+        <v>1489.6522999999891</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>1199.622899999895</v>
+      </c>
+      <c r="D36">
+        <v>1578.6380999998071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>873.15569999987019</v>
+      </c>
+      <c r="D37">
+        <v>83.111199999848395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>873.15569999987019</v>
+      </c>
+      <c r="D38">
+        <v>136.79909999996201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>873.15569999987019</v>
+      </c>
+      <c r="D39">
+        <v>184.87359999994621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>873.15569999987019</v>
+      </c>
+      <c r="E40">
+        <v>254.2296999999962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>873.15569999987019</v>
+      </c>
+      <c r="D41">
+        <v>342.04460000000842</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>873.15569999987019</v>
+      </c>
+      <c r="D42">
+        <v>387.69609999985732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>733.66809999993166</v>
+      </c>
+      <c r="F43">
+        <v>292.08579999999529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>733.66809999993166</v>
+      </c>
+      <c r="D44">
+        <v>338.22789999999259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1257.985800000142</v>
+      </c>
+      <c r="F45">
+        <v>302.73329999999987</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1257.985800000142</v>
+      </c>
+      <c r="E46">
+        <v>365.73399999997491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>1257.985800000142</v>
+      </c>
+      <c r="E47">
+        <v>415.16410000008358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>1257.985800000142</v>
+      </c>
+      <c r="F48">
+        <v>717.5492999999733</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>1257.985800000142</v>
+      </c>
+      <c r="E49">
+        <v>765.77990000009777</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>1257.985800000142</v>
+      </c>
+      <c r="D50">
+        <v>810.31460000008337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>1257.985800000142</v>
+      </c>
+      <c r="E51">
+        <v>855.73850000014318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>1257.985800000142</v>
+      </c>
+      <c r="E52">
+        <v>920.36980000011681</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>1257.985800000142</v>
+      </c>
+      <c r="D53">
+        <v>965.8782000001338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="D54">
+        <v>54.20630000003257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="E55">
+        <v>99.766499999986991</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="E56">
+        <v>146.09339999992699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="E57">
+        <v>210.97650000001519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="F58">
+        <v>535.15909999987343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="D59">
+        <v>579.91779999997561</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="D60">
+        <v>625.31019999983073</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="E61">
+        <v>691.51839999994991</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="D62">
+        <v>736.74989999994978</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="E63">
+        <v>786.16650000003574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="E64">
+        <v>854.04040000003079</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="D65">
+        <v>901.62549999990915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="E66">
+        <v>951.13449999985278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="E67">
+        <v>997.2731999998814</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="F68">
+        <v>1313.2942999998249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>15</v>
+      </c>
+      <c r="C69">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="E69">
+        <v>1362.908299999845</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>16</v>
+      </c>
+      <c r="C70">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="F70">
+        <v>1665.6625999999051</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>17</v>
+      </c>
+      <c r="C71">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="E71">
+        <v>1712.1958000000179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="D72">
+        <v>1757.1772999999671</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>19</v>
+      </c>
+      <c r="C73">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="F73">
+        <v>2062.2713999998718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="D74">
+        <v>2147.8488000000202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>1405.777700000044</v>
+      </c>
+      <c r="D75">
+        <v>2192.9336999999118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>876.82889999996405</v>
+      </c>
+      <c r="F76">
+        <v>320.99289999996472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>876.82889999996405</v>
+      </c>
+      <c r="D77">
+        <v>365.95349999993232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>876.82889999996405</v>
+      </c>
+      <c r="F78">
+        <v>694.66590000001815</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>876.82889999996405</v>
+      </c>
+      <c r="E79">
+        <v>762.24669999987782</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1033.377299999984</v>
+      </c>
+      <c r="E80">
+        <v>43.013400000063477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1033.377299999984</v>
+      </c>
+      <c r="E81">
+        <v>110.51920000022621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>1033.377299999984</v>
+      </c>
+      <c r="F82">
+        <v>418.80250000008351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>1033.377299999984</v>
+      </c>
+      <c r="D83">
+        <v>505.11710000000681</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>1033.377299999984</v>
+      </c>
+      <c r="D84">
+        <v>551.05070000013257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>1033.377299999984</v>
+      </c>
+      <c r="D85">
+        <v>638.06240000008074</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>1033.377299999984</v>
+      </c>
+      <c r="F86">
+        <v>953.922700000021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>1033.377299999984</v>
+      </c>
+      <c r="E87">
+        <v>1019.6173000001641</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>1033.377299999984</v>
+      </c>
+      <c r="F88">
+        <v>1344.9786000001041</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>10</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>1033.377299999984</v>
+      </c>
+      <c r="D89">
+        <v>1389.7663000000191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>10</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>1033.377299999984</v>
+      </c>
+      <c r="D90">
+        <v>1476.441800000202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91">
+        <v>11</v>
+      </c>
+      <c r="C91">
+        <v>1033.377299999984</v>
+      </c>
+      <c r="D91">
+        <v>1521.572900000137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>11</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>1991.4902999989861</v>
+      </c>
+      <c r="D92">
+        <v>41.499199998725089</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1991.4902999989861</v>
+      </c>
+      <c r="E93">
+        <v>89.666500000021188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>11</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>1991.4902999989861</v>
+      </c>
+      <c r="E94">
+        <v>153.36089999982511</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>11</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>1991.4902999989861</v>
+      </c>
+      <c r="D95">
+        <v>198.93379999848551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>11</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>1991.4902999989861</v>
+      </c>
+      <c r="F96">
+        <v>515.47070000015083</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>1991.4902999989861</v>
+      </c>
+      <c r="F97">
+        <v>817.4628999986453</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>11</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>1991.4902999989861</v>
+      </c>
+      <c r="E98">
+        <v>866.47259999881499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>11</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>1991.4902999989861</v>
+      </c>
+      <c r="D99">
+        <v>912.20369999973627</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>1991.4902999989861</v>
+      </c>
+      <c r="D100">
+        <v>957.25990000028105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>11</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>1991.4902999989861</v>
+      </c>
+      <c r="D101">
+        <v>1001.286699998673</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>11</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>1991.4902999989861</v>
+      </c>
+      <c r="F102">
+        <v>1306.2226999991251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>12</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1208.274500000698</v>
+      </c>
+      <c r="D103">
+        <v>40.227200001027093</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>12</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1208.274500000698</v>
+      </c>
+      <c r="E104">
+        <v>86.083700000017416</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>12</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>1208.274500000698</v>
+      </c>
+      <c r="F105">
+        <v>402.14940000078059</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>12</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>1208.274500000698</v>
+      </c>
+      <c r="D106">
+        <v>489.08210000081448</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>12</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>1208.274500000698</v>
+      </c>
+      <c r="D107">
+        <v>534.18910000073083</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>12</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>1208.274500000698</v>
+      </c>
+      <c r="F108">
+        <v>831.41680000153428</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>12</v>
+      </c>
+      <c r="B109">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>1208.274500000698</v>
+      </c>
+      <c r="E109">
+        <v>898.55420000094455</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>12</v>
+      </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>1208.274500000698</v>
+      </c>
+      <c r="E110">
+        <v>946.91039999997884</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>12</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>1208.274500000698</v>
+      </c>
+      <c r="D111">
+        <v>992.42310000045109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>12</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>1208.274500000698</v>
+      </c>
+      <c r="F112">
+        <v>1301.5512000001761</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>13</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>1404.421500001263</v>
+      </c>
+      <c r="E113">
+        <v>57.67060000107449</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>13</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1404.421500001263</v>
+      </c>
+      <c r="D114">
+        <v>102.7277000011964</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>15</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>903.04110000033688</v>
+      </c>
+      <c r="E115">
+        <v>41.959000000133528</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>15</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>903.04110000033688</v>
+      </c>
+      <c r="E116">
+        <v>91.488999998546205</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>1252.8515000012701</v>
+      </c>
+      <c r="D117">
+        <v>40.796699999191333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1252.8515000012701</v>
+      </c>
+      <c r="D118">
+        <v>86.919699999270961</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>16</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>1252.8515000012701</v>
+      </c>
+      <c r="F119">
+        <v>415.67479999866919</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>16</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>1252.8515000012701</v>
+      </c>
+      <c r="D120">
+        <v>462.42799999890849</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>16</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>1252.8515000012701</v>
+      </c>
+      <c r="D121">
+        <v>548.97569999957341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>16</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>1252.8515000012701</v>
+      </c>
+      <c r="E122">
+        <v>616.01299999892944</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>17</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>952.44999999886204</v>
+      </c>
+      <c r="D123">
+        <v>40.029899999353802</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>17</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>952.44999999886204</v>
+      </c>
+      <c r="D124">
+        <v>126.01150000045889</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>17</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>952.44999999886204</v>
+      </c>
+      <c r="D125">
+        <v>171.21790000055631</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>18</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>1362.980500000049</v>
+      </c>
+      <c r="E126">
+        <v>43.576300000495387</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>18</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1362.980500000049</v>
+      </c>
+      <c r="E127">
+        <v>107.7353000000585</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>18</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>1362.980500000049</v>
+      </c>
+      <c r="D128">
+        <v>152.94639999956419</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>18</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>1362.980500000049</v>
+      </c>
+      <c r="F129">
+        <v>454.61609999983921</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>18</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>1362.980500000049</v>
+      </c>
+      <c r="E130">
+        <v>502.00980000045092</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>19</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>1303.0956000002329</v>
+      </c>
+      <c r="E131">
+        <v>41.685000000143191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>19</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1303.0956000002329</v>
+      </c>
+      <c r="E132">
+        <v>90.794199999436387</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>19</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>1303.0956000002329</v>
+      </c>
+      <c r="E133">
+        <v>139.63599999988219</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>19</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>1303.0956000002329</v>
+      </c>
+      <c r="F134">
+        <v>481.29279999920982</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>20</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>711.83720000044559</v>
+      </c>
+      <c r="D135">
+        <v>40.206300000136252</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>20</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>711.83720000044559</v>
+      </c>
+      <c r="E136">
+        <v>86.103599998750724</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>20</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>711.83720000044559</v>
+      </c>
+      <c r="E137">
+        <v>134.27689999844009</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>21</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>1395.520799998849</v>
+      </c>
+      <c r="E138">
+        <v>58.087900000828093</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>21</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1395.520799998849</v>
+      </c>
+      <c r="E139">
+        <v>122.89960000089199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>21</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>1395.520799998849</v>
+      </c>
+      <c r="D140">
+        <v>167.6698999999644</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>21</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>1395.520799998849</v>
+      </c>
+      <c r="D141">
+        <v>212.24160000019759</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>21</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>1395.520799998849</v>
+      </c>
+      <c r="E142">
+        <v>260.53839999985939</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>21</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>1395.520799998849</v>
+      </c>
+      <c r="E143">
+        <v>307.91760000101931</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>21</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>1395.520799998849</v>
+      </c>
+      <c r="D144">
+        <v>352.34660000060097</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>21</v>
+      </c>
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>1395.520799998849</v>
+      </c>
+      <c r="D145">
+        <v>397.10490000106802</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>21</v>
+      </c>
+      <c r="B146">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>1395.520799998849</v>
+      </c>
+      <c r="E146">
+        <v>442.61829999959451</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>21</v>
+      </c>
+      <c r="B147">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>1395.520799998849</v>
+      </c>
+      <c r="D147">
+        <v>487.32310000013968</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>21</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <v>1395.520799998849</v>
+      </c>
+      <c r="D148">
+        <v>533.46330000022135</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>21</v>
+      </c>
+      <c r="B149">
+        <v>11</v>
+      </c>
+      <c r="C149">
+        <v>1395.520799998849</v>
+      </c>
+      <c r="D149">
+        <v>580.25059999999939</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>22</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>1143.4914000001299</v>
+      </c>
+      <c r="F150">
+        <v>301.84659999940777</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>22</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1143.4914000001299</v>
+      </c>
+      <c r="D151">
+        <v>347.35019999970967</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>22</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>1143.4914000001299</v>
+      </c>
+      <c r="D152">
+        <v>392.85980000022391</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>22</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>1143.4914000001299</v>
+      </c>
+      <c r="D153">
+        <v>438.67929999942129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>22</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>1143.4914000001299</v>
+      </c>
+      <c r="D154">
+        <v>483.8954000006197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>22</v>
+      </c>
+      <c r="B155">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>1143.4914000001299</v>
+      </c>
+      <c r="E155">
+        <v>530.42529999947874</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>22</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>1143.4914000001299</v>
+      </c>
+      <c r="E156">
+        <v>603.95050000079209</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>23</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>1137.545699999464</v>
+      </c>
+      <c r="E157">
+        <v>44.9611999993067</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>23</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>1137.545699999464</v>
+      </c>
+      <c r="D158">
+        <v>89.856900000086171</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>23</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>1137.545699999464</v>
+      </c>
+      <c r="E159">
+        <v>137.89619999988639</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>23</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>1137.545699999464</v>
+      </c>
+      <c r="F160">
+        <v>464.09599999969942</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>24</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>1446.125299999039</v>
+      </c>
+      <c r="D161">
+        <v>53.843700001380057</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>24</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1446.125299999039</v>
+      </c>
+      <c r="E162">
+        <v>103.07410000132219</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>24</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>1446.125299999039</v>
+      </c>
+      <c r="D163">
+        <v>147.6107000016782</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>24</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>1446.125299999039</v>
+      </c>
+      <c r="E164">
+        <v>212.38890000131511</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>24</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>1446.125299999039</v>
+      </c>
+      <c r="D165">
+        <v>258.29780000094621</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>24</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>1446.125299999039</v>
+      </c>
+      <c r="D166">
+        <v>303.0746000004001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>24</v>
+      </c>
+      <c r="B167">
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <v>1446.125299999039</v>
+      </c>
+      <c r="D167">
+        <v>388.98580000022781</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>24</v>
+      </c>
+      <c r="B168">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>1446.125299999039</v>
+      </c>
+      <c r="E168">
+        <v>434.3780000017432</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>24</v>
+      </c>
+      <c r="B169">
+        <v>8</v>
+      </c>
+      <c r="C169">
+        <v>1446.125299999039</v>
+      </c>
+      <c r="D169">
+        <v>481.4819000002899</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>24</v>
+      </c>
+      <c r="B170">
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <v>1446.125299999039</v>
+      </c>
+      <c r="D170">
+        <v>527.3034000001644</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>25</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>1519.479399999909</v>
+      </c>
+      <c r="D171">
+        <v>41.790399998717483</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>25</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>1519.479399999909</v>
+      </c>
+      <c r="D172">
+        <v>90.985199998613098</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>26</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>1556.435400001646</v>
+      </c>
+      <c r="D173">
+        <v>41.050699999686913</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>26</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>1556.435400001646</v>
+      </c>
+      <c r="E174">
+        <v>107.4336000001495</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>26</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>1556.435400001646</v>
+      </c>
+      <c r="D175">
+        <v>154.76069999931499</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>26</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>1556.435400001646</v>
+      </c>
+      <c r="D176">
+        <v>200.34300000043001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>26</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>1556.435400001646</v>
+      </c>
+      <c r="E177">
+        <v>270.33409999967262</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>26</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>1556.435400001646</v>
+      </c>
+      <c r="D178">
+        <v>315.28889999935927</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>26</v>
+      </c>
+      <c r="B179">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>1556.435400001646</v>
+      </c>
+      <c r="D179">
+        <v>361.26449999937898</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>27</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>1758.53669999924</v>
+      </c>
+      <c r="F180">
+        <v>820.69830000000366</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>27</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>1758.53669999924</v>
+      </c>
+      <c r="D181">
+        <v>871.59860000065237</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>27</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>1758.53669999924</v>
+      </c>
+      <c r="E182">
+        <v>926.0893999999098</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>27</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>1758.53669999924</v>
+      </c>
+      <c r="D183">
+        <v>973.29330000138725</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>27</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>1758.53669999924</v>
+      </c>
+      <c r="D184">
+        <v>1061.6366000012929</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>27</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>1758.53669999924</v>
+      </c>
+      <c r="D185">
+        <v>1108.664299999873</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>27</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>1758.53669999924</v>
+      </c>
+      <c r="D186">
+        <v>1154.213800000434</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>27</v>
+      </c>
+      <c r="B187">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <v>1758.53669999924</v>
+      </c>
+      <c r="D187">
+        <v>1201.582200001212</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>27</v>
+      </c>
+      <c r="B188">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <v>1758.53669999924</v>
+      </c>
+      <c r="D188">
+        <v>1248.101799999858</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>28</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>1304.9100000007461</v>
+      </c>
+      <c r="D189">
+        <v>40.953700001409743</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>28</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>1304.9100000007461</v>
+      </c>
+      <c r="E190">
+        <v>91.914300001008087</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>28</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <v>1304.9100000007461</v>
+      </c>
+      <c r="D191">
+        <v>156.0129000008601</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>28</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>1304.9100000007461</v>
+      </c>
+      <c r="D192">
+        <v>201.45840000077439</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>28</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>1304.9100000007461</v>
+      </c>
+      <c r="E193">
+        <v>258.0154000006587</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>28</v>
+      </c>
+      <c r="B194">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>1304.9100000007461</v>
+      </c>
+      <c r="D194">
+        <v>346.98180000123102</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>28</v>
+      </c>
+      <c r="B195">
+        <v>6</v>
+      </c>
+      <c r="C195">
+        <v>1304.9100000007461</v>
+      </c>
+      <c r="D195">
+        <v>395.55450000079873</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>28</v>
+      </c>
+      <c r="B196">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>1304.9100000007461</v>
+      </c>
+      <c r="D196">
+        <v>443.27340000018012</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>28</v>
+      </c>
+      <c r="B197">
+        <v>8</v>
+      </c>
+      <c r="C197">
+        <v>1304.9100000007461</v>
+      </c>
+      <c r="D197">
+        <v>490.04830000012589</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>28</v>
+      </c>
+      <c r="B198">
+        <v>9</v>
+      </c>
+      <c r="C198">
+        <v>1304.9100000007461</v>
+      </c>
+      <c r="D198">
+        <v>638.76230000096257</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>28</v>
+      </c>
+      <c r="B199">
+        <v>10</v>
+      </c>
+      <c r="C199">
+        <v>1304.9100000007461</v>
+      </c>
+      <c r="D199">
+        <v>761.5802000000258</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>29</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>1376.4908000011931</v>
+      </c>
+      <c r="E200">
+        <v>56.982899999638903</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>29</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1376.4908000011931</v>
+      </c>
+      <c r="E201">
+        <v>122.574999999415</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>29</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
+        <v>1376.4908000011931</v>
+      </c>
+      <c r="D202">
+        <v>168.3911999989505</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>29</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>1376.4908000011931</v>
+      </c>
+      <c r="D203">
+        <v>214.05740000045631</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>29</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>1376.4908000011931</v>
+      </c>
+      <c r="E204">
+        <v>263.41639999918698</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>29</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>1376.4908000011931</v>
+      </c>
+      <c r="D205">
+        <v>309.9302999999054</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>29</v>
+      </c>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>1376.4908000011931</v>
+      </c>
+      <c r="E206">
+        <v>359.64969999986351</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>29</v>
+      </c>
+      <c r="B207">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>1376.4908000011931</v>
+      </c>
+      <c r="D207">
+        <v>405.19519999907061</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>30</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>1024.4445999996969</v>
+      </c>
+      <c r="E208">
+        <v>124.2511999989802</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>30</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209">
+        <v>1024.4445999996969</v>
+      </c>
+      <c r="F209">
+        <v>460.96749999924208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>30</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210">
+        <v>1024.4445999996969</v>
+      </c>
+      <c r="E210">
+        <v>509.8175999992236</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>30</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>1024.4445999996969</v>
+      </c>
+      <c r="E211">
+        <v>574.68340000013995</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>30</v>
+      </c>
+      <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>1024.4445999996969</v>
+      </c>
+      <c r="D212">
+        <v>619.00210000021616</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>30</v>
+      </c>
+      <c r="B213">
+        <v>6</v>
+      </c>
+      <c r="C213">
+        <v>1024.4445999996969</v>
+      </c>
+      <c r="D213">
+        <v>664.35939999973925</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>30</v>
+      </c>
+      <c r="B214">
+        <v>7</v>
+      </c>
+      <c r="C214">
+        <v>1024.4445999996969</v>
+      </c>
+      <c r="F214">
+        <v>1011.964899998929</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>30</v>
+      </c>
+      <c r="B215">
+        <v>8</v>
+      </c>
+      <c r="C215">
+        <v>1024.4445999996969</v>
+      </c>
+      <c r="E215">
+        <v>1058.4853000000289</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>30</v>
+      </c>
+      <c r="B216">
+        <v>9</v>
+      </c>
+      <c r="C216">
+        <v>1024.4445999996969</v>
+      </c>
+      <c r="E216">
+        <v>1123.675499999081</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>30</v>
+      </c>
+      <c r="B217">
+        <v>10</v>
+      </c>
+      <c r="C217">
+        <v>1024.4445999996969</v>
+      </c>
+      <c r="D217">
+        <v>1169.1859999991721</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pythonProject/Results_2/time_results_2.xlsx
+++ b/pythonProject/Results_2/time_results_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8A78E9-F443-44EB-9136-4FBB08F467CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1231DAA9-F40C-4083-8B20-396DB0D7BFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$2246</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$1:$B$2268</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$D$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$D$2:$D$827</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$C$2:$C$449</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$D$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$D$2:$D$827</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$C$2:$C$449</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$C$2:$C$449</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$C$2:$C$449</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$D$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$D$2:$D$827</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$B$2:$B$971</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$2:$B$971</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$D$2:$D$827</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$D$2:$D$827</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$C$2:$C$449</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$D$2:$D$827</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$1:$D$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$B$2:$B$3156</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$B$2:$B$971</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$2:$B$971</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$C$2:$C$449</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -138,7 +134,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -192,13 +188,15 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{336C4DAE-535A-461E-AE77-27B771D78856}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Only Single Line</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="200"/>
+            </cx:binning>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
@@ -221,17 +219,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -242,7 +240,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-82BB-4A29-B88A-1B8FCC7C9AE2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Only Single Line</cx:v>
             </cx:txData>
           </cx:tx>
@@ -254,7 +252,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-82BB-4A29-B88A-1B8FCC7C9AE2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Using Size</cx:v>
             </cx:txData>
           </cx:tx>
@@ -266,7 +264,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000003-82BB-4A29-B88A-1B8FCC7C9AE2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Using Distance</cx:v>
             </cx:txData>
           </cx:tx>
@@ -295,7 +293,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -333,13 +331,15 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{FF0BA8A6-88BC-4E51-A002-F2022E58C008}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>Using Size</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="200"/>
+            </cx:binning>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
@@ -363,7 +363,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -401,7 +401,9 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{7E958274-E08B-415B-AEB3-BD223E6F2D04}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="200"/>
+            </cx:binning>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
@@ -2675,8 +2677,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4229100" y="342900"/>
-              <a:ext cx="6850380" cy="2758440"/>
+              <a:off x="4238625" y="342900"/>
+              <a:ext cx="6848475" cy="2724150"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2753,8 +2755,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4579620" y="12713970"/>
-              <a:ext cx="5135880" cy="3013710"/>
+              <a:off x="4581525" y="12578715"/>
+              <a:ext cx="5143500" cy="2985135"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2831,8 +2833,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4442460" y="3390900"/>
-              <a:ext cx="5966460" cy="4008120"/>
+              <a:off x="4448175" y="3352800"/>
+              <a:ext cx="5962650" cy="3971925"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2871,9 +2873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2909,8 +2911,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4290060" y="8046720"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4295775" y="7962900"/>
+              <a:ext cx="4705350" cy="3429000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3244,7 +3246,7 @@
   <dimension ref="A1:O2246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -37209,8 +37211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37B06C-31A2-4AD0-A481-1F025272F18C}">
   <dimension ref="A1:D971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pythonProject/Results_2/time_results_2.xlsx
+++ b/pythonProject/Results_2/time_results_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FA2C5E-2866-4B75-BEFF-96CB6D8211E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725E995B-8D2E-4239-A5F9-3DD0859C369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,19 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$2246</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$1:$B$2268</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$D$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$D$2:$D$827</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$D$2:$D$827</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$D$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$D$2:$D$827</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$2:$C$449</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$B$2:$B$971</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$2:$B$971</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$C$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$C$2:$C$449</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$2:$B$971</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$C$2:$C$449</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$C$2:$C$449</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$D$2:$D$827</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$2:$B$971</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$D$2:$D$827</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -144,66 +142,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Only Single Line</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:spPr>
-        <a:noFill/>
-      </cx:spPr>
-      <cx:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Only Single Line</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:plotSurface>
           <cx:spPr>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
           </cx:spPr>
         </cx:plotSurface>
         <cx:series layoutId="clusteredColumn" uniqueId="{336C4DAE-535A-461E-AE77-27B771D78856}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Only Single Line</cx:v>
             </cx:txData>
           </cx:tx>
@@ -238,15 +197,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr b="1"/>
+                <a:defRPr b="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -255,8 +215,16 @@
             </a:p>
           </cx:txPr>
         </cx:title>
+        <cx:majorTickMarks type="in"/>
         <cx:tickLabels/>
         <cx:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <cx:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
         <cx:txPr>
           <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -281,31 +249,55 @@
         <cx:valScaling/>
         <cx:title>
           <cx:tx>
-            <cx:txData>
-              <cx:v>Occurances</cx:v>
-            </cx:txData>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Only Single Line - </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>Occurances</a:t>
+                </a:r>
+              </a:p>
+            </cx:rich>
           </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr b="1"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                </a:rPr>
-                <a:t>Occurances</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
         </cx:title>
         <cx:majorGridlines>
           <cx:spPr>
@@ -314,19 +306,27 @@
             </a:ln>
           </cx:spPr>
         </cx:majorGridlines>
+        <cx:majorTickMarks type="in"/>
         <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
         <cx:txPr>
           <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr>
+              <a:defRPr sz="1000">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -345,17 +345,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -366,7 +366,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-82BB-4A29-B88A-1B8FCC7C9AE2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Only Single Line</cx:v>
             </cx:txData>
           </cx:tx>
@@ -378,7 +378,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-82BB-4A29-B88A-1B8FCC7C9AE2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Using Size</cx:v>
             </cx:txData>
           </cx:tx>
@@ -390,7 +390,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000003-82BB-4A29-B88A-1B8FCC7C9AE2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Using Distance</cx:v>
             </cx:txData>
           </cx:tx>
@@ -419,42 +419,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Using Size</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Using Size</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
         <cx:series layoutId="clusteredColumn" uniqueId="{FF0BA8A6-88BC-4E51-A002-F2022E58C008}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Using Size</cx:v>
             </cx:txData>
           </cx:tx>
@@ -485,16 +469,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr rtl="0">
-                  <a:defRPr sz="900" b="1"/>
+                  <a:defRPr sz="1000" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="1" i="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
                     <a:effectLst/>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
                   <a:t>Time (ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="900" b="1">
+                <a:endParaRPr lang="en-US" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                 </a:endParaRPr>
@@ -502,8 +496,16 @@
             </cx:rich>
           </cx:tx>
         </cx:title>
+        <cx:majorTickMarks type="in"/>
         <cx:tickLabels/>
         <cx:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <cx:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
         <cx:txPr>
           <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -532,30 +534,42 @@
               <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1000" b="1"/>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:effectLst/>
                     <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                     <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Occurances</a:t>
+                  <a:t>Using Size - Occurances</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:endParaRPr>
@@ -570,19 +584,27 @@
             </a:ln>
           </cx:spPr>
         </cx:majorGridlines>
+        <cx:majorTickMarks type="in"/>
         <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
         <cx:txPr>
           <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr>
+              <a:defRPr sz="1000">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -601,38 +623,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Using Distance</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Using Distance</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
         <cx:series layoutId="clusteredColumn" uniqueId="{7E958274-E08B-415B-AEB3-BD223E6F2D04}">
           <cx:spPr>
             <a:solidFill>
@@ -660,15 +666,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr b="1"/>
+                <a:defRPr sz="1000" b="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -677,8 +684,16 @@
             </a:p>
           </cx:txPr>
         </cx:title>
+        <cx:majorTickMarks type="in"/>
         <cx:tickLabels/>
         <cx:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <cx:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
         <cx:txPr>
           <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -707,17 +722,64 @@
               <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr rtl="0">
-                  <a:defRPr sz="1000" b="1"/>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Using Distance - </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
                     <a:effectLst/>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
                   <a:t>Occurances</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1000" b="1">
+                <a:endParaRPr lang="en-US" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                 </a:endParaRPr>
@@ -732,19 +794,27 @@
             </a:ln>
           </cx:spPr>
         </cx:majorGridlines>
+        <cx:majorTickMarks type="in"/>
         <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
         <cx:txPr>
           <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr>
+              <a:defRPr sz="1000">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2970,15 +3040,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3014,8 +3084,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4373880" y="556260"/>
-              <a:ext cx="7966710" cy="3869055"/>
+              <a:off x="4396740" y="693420"/>
+              <a:ext cx="8938260" cy="3855720"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3092,8 +3162,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4581525" y="12578715"/>
-              <a:ext cx="5143500" cy="2985135"/>
+              <a:off x="4579620" y="12713970"/>
+              <a:ext cx="5135880" cy="3013710"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3131,10 +3201,10 @@
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3171,7 +3241,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4366259" y="4657724"/>
-              <a:ext cx="7981951" cy="3842386"/>
+              <a:ext cx="8953501" cy="3853816"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3209,10 +3279,10 @@
       <xdr:rowOff>91437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3249,7 +3319,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4408168" y="8686797"/>
-              <a:ext cx="7905752" cy="3729993"/>
+              <a:ext cx="8911592" cy="3810003"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3582,7 +3652,7 @@
   <dimension ref="A1:N2246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1991" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2220" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K2020" sqref="K2020"/>
     </sheetView>
   </sheetViews>
@@ -35070,8 +35140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37B06C-31A2-4AD0-A481-1F025272F18C}">
   <dimension ref="A1:D971"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pythonProject/Results_2/time_results_2.xlsx
+++ b/pythonProject/Results_2/time_results_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725E995B-8D2E-4239-A5F9-3DD0859C369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5040EC-A35D-44E6-BF2F-FCCC3938D831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,15 +21,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$1:$B$2268</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$2:$B$971</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$C$2:$C$449</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$C$2:$C$449</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$D$2:$D$827</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$2:$B$971</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$D$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$D$2:$D$827</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$D$2:$D$827</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$2:$B$971</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$2:$C$449</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$D$2:$D$827</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$C$2:$C$449</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -142,7 +142,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -162,7 +162,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{336C4DAE-535A-461E-AE77-27B771D78856}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Only Single Line</cx:v>
             </cx:txData>
           </cx:tx>
@@ -337,6 +337,11 @@
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -345,17 +350,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -366,7 +371,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-82BB-4A29-B88A-1B8FCC7C9AE2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Only Single Line</cx:v>
             </cx:txData>
           </cx:tx>
@@ -378,7 +383,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-82BB-4A29-B88A-1B8FCC7C9AE2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Using Size</cx:v>
             </cx:txData>
           </cx:tx>
@@ -390,7 +395,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000003-82BB-4A29-B88A-1B8FCC7C9AE2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Using Distance</cx:v>
             </cx:txData>
           </cx:tx>
@@ -419,7 +424,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -438,7 +443,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{FF0BA8A6-88BC-4E51-A002-F2022E58C008}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>Using Size</cx:v>
             </cx:txData>
           </cx:tx>
@@ -615,6 +620,11 @@
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -623,7 +633,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -825,6 +835,11 @@
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -35140,8 +35155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37B06C-31A2-4AD0-A481-1F025272F18C}">
   <dimension ref="A1:D971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="V46" sqref="V46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
